--- a/01-basics/exercises/14-separation_of_concerns.xlsx
+++ b/01-basics/exercises/14-separation_of_concerns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3140236\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3140236\Desktop\work\DesigningKatas\01-basics\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D13D1-0C38-4515-B630-982B9BF4D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285D24B-AC6B-4D23-8894-6E2494DB55E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3150" windowWidth="28800" windowHeight="15435" xr2:uid="{131DB020-4B55-4184-8193-CFCA289D6E10}"/>
+    <workbookView xWindow="3120" yWindow="3150" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{131DB020-4B55-4184-8193-CFCA289D6E10}"/>
   </bookViews>
   <sheets>
     <sheet name="関心の分離例" sheetId="1" r:id="rId1"/>
@@ -140,26 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>悪役(貧富)</t>
-    <rPh sb="0" eb="2">
-      <t>アクヤク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒンプ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>悪役(力)</t>
-    <rPh sb="0" eb="2">
-      <t>アクヤク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チカラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>傍観者</t>
     <rPh sb="0" eb="3">
       <t>ボウカンシャ</t>
@@ -185,26 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>悪役(欲求と現実)</t>
-    <rPh sb="0" eb="2">
-      <t>アクヤク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨッキュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>味方</t>
-    <rPh sb="0" eb="2">
-      <t>ミカタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>調停者</t>
     <rPh sb="0" eb="2">
       <t>チョウテイ</t>
@@ -283,16 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>狂言回し(ストーリー進行)</t>
-    <rPh sb="0" eb="3">
-      <t>キョウゲンマワ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
@@ -567,6 +517,65 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強者・悪役(貧富)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アクヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強者・悪役(力)</t>
+    <rPh sb="3" eb="5">
+      <t>アクヤク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強者・悪役(欲求と現実)</t>
+    <rPh sb="3" eb="5">
+      <t>アクヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨッキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公平な裁定者</t>
+    <rPh sb="0" eb="2">
+      <t>コウヘイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狂言回し(=ストーリー進行)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウゲンマワ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -669,9 +678,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63FCD74-A671-47A1-B3FE-FAF3D1D9A86C}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1007,21 +1016,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>47</v>
+      <c r="A1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
@@ -1031,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -1044,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1061,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1074,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1088,10 +1097,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1117,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1125,60 +1134,60 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>48</v>
+      <c r="A14" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1186,10 +1195,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1198,13 +1207,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1212,10 +1221,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1224,10 +1233,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1236,13 +1245,13 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1270,59 +1279,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB800F3-6469-4277-96A9-B82C436E3596}">
   <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
     <col min="3" max="9" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1330,113 +1339,113 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1444,7 +1453,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1452,7 +1461,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1460,7 +1469,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1468,27 +1477,25 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>26</v>
+      <c r="A21" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
@@ -1615,24 +1622,24 @@
       <c r="G36" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
-        <v>26</v>
+      <c r="A39" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
@@ -1759,24 +1766,24 @@
       <c r="G54" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="8" t="s">
-        <v>26</v>
+      <c r="A57" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
@@ -1903,24 +1910,24 @@
       <c r="G72" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="8" t="s">
-        <v>26</v>
+      <c r="A75" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="5" t="s">
+      <c r="B76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B77" s="3" t="s">
@@ -2047,24 +2054,24 @@
       <c r="G90" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A93" s="8" t="s">
-        <v>26</v>
+      <c r="A93" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
@@ -2191,24 +2198,24 @@
       <c r="G108" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A111" s="8" t="s">
-        <v>26</v>
+      <c r="A111" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B112" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" s="3" t="s">
@@ -2335,24 +2342,24 @@
       <c r="G126" s="3"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A129" s="8" t="s">
-        <v>26</v>
+      <c r="A129" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B130" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="5" t="s">
+      <c r="B130" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B131" s="3" t="s">
@@ -2479,24 +2486,24 @@
       <c r="G144" s="3"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A147" s="8" t="s">
-        <v>26</v>
+      <c r="A147" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B148" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C148" s="5" t="s">
+      <c r="B148" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B149" s="3" t="s">
@@ -2623,24 +2630,24 @@
       <c r="G162" s="3"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A165" s="8" t="s">
-        <v>26</v>
+      <c r="A165" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B166" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C166" s="5" t="s">
+      <c r="B166" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B167" s="3" t="s">
@@ -2767,24 +2774,24 @@
       <c r="G180" s="3"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A183" s="8" t="s">
-        <v>26</v>
+      <c r="A183" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B184" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" s="5" t="s">
+      <c r="B184" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B185" s="3" t="s">
@@ -2911,24 +2918,24 @@
       <c r="G198" s="3"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A201" s="8" t="s">
-        <v>26</v>
+      <c r="A201" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B202" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C202" s="5" t="s">
+      <c r="B202" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B203" s="3" t="s">
@@ -3055,24 +3062,24 @@
       <c r="G216" s="3"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A219" s="8" t="s">
-        <v>26</v>
+      <c r="A219" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B220" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C220" s="5" t="s">
+      <c r="B220" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C220" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B221" s="3" t="s">
@@ -3200,6 +3207,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C76:G76"/>
     <mergeCell ref="C220:G220"/>
     <mergeCell ref="C112:G112"/>
     <mergeCell ref="C130:G130"/>
@@ -3207,12 +3220,6 @@
     <mergeCell ref="C166:G166"/>
     <mergeCell ref="C184:G184"/>
     <mergeCell ref="C202:G202"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C94:G94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01-basics/exercises/14-separation_of_concerns.xlsx
+++ b/01-basics/exercises/14-separation_of_concerns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3140236\Desktop\work\DesigningKatas\01-basics\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9285D24B-AC6B-4D23-8894-6E2494DB55E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6AD9E6-018B-463F-A300-F4FB2C9EDFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3150" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{131DB020-4B55-4184-8193-CFCA289D6E10}"/>
+    <workbookView xWindow="2280" yWindow="5070" windowWidth="24525" windowHeight="14910" xr2:uid="{131DB020-4B55-4184-8193-CFCA289D6E10}"/>
   </bookViews>
   <sheets>
     <sheet name="関心の分離例" sheetId="1" r:id="rId1"/>
@@ -297,13 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進行のキーマン</t>
-    <rPh sb="0" eb="2">
-      <t>シンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵とのコネクション</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -576,6 +569,16 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストーリーの状態遷移役</t>
+    <rPh sb="6" eb="10">
+      <t>ジョウタイセンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1006,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63FCD74-A671-47A1-B3FE-FAF3D1D9A86C}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1017,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1040,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -1083,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1097,10 +1100,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1137,10 +1140,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1165,29 +1168,29 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1195,10 +1198,10 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1207,13 +1210,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1221,10 +1224,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1233,10 +1236,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1245,13 +1248,13 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1279,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB800F3-6469-4277-96A9-B82C436E3596}">
   <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1295,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1318,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1323,15 +1326,15 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1353,13 +1356,13 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1374,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1383,31 +1386,31 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1415,13 +1418,13 @@
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1433,19 +1436,19 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1453,7 +1456,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1461,7 +1464,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1469,7 +1472,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1477,6 +1480,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>22</v>
@@ -3207,12 +3211,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C76:G76"/>
     <mergeCell ref="C220:G220"/>
     <mergeCell ref="C112:G112"/>
     <mergeCell ref="C130:G130"/>
@@ -3220,6 +3218,12 @@
     <mergeCell ref="C166:G166"/>
     <mergeCell ref="C184:G184"/>
     <mergeCell ref="C202:G202"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C76:G76"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
